--- a/lesmdm开发预演/功能开发分配.xlsx
+++ b/lesmdm开发预演/功能开发分配.xlsx
@@ -18,75 +18,75 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
+    <t>LES功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDM开发负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDM交叉测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘志龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕轲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LES物料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LES供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会化物料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会化客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会化BOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯彦国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕轲，冯彦国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐克阳，赵博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haier接口人（待定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LES客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LES功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MDM开发负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MDM交叉测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘志龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕轲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LES物料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LES供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会化物料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会化客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会化BOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯彦国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕轲，冯彦国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐克阳，赵博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haier接口人（待定）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -486,93 +486,93 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
